--- a/matchEkstraklasaKolejka12.xlsx
+++ b/matchEkstraklasaKolejka12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E66D7D6-BDC6-47DF-9E69-45BB734440AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB92618-E2F1-43EC-9025-F77A3BF6983D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8640" xr2:uid="{6D3D3946-2B72-499A-A91E-ACEA3035F2D5}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
